--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.859944</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H2">
-        <v>26.579832</v>
+        <v>18.469813</v>
       </c>
       <c r="I2">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J2">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="N2">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="O2">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="P2">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="Q2">
-        <v>0.079810375552</v>
+        <v>0.9156512404822222</v>
       </c>
       <c r="R2">
-        <v>0.718293379968</v>
+        <v>8.24086116434</v>
       </c>
       <c r="S2">
-        <v>0.004810616241552087</v>
+        <v>0.04283866267267729</v>
       </c>
       <c r="T2">
-        <v>0.004810616241552087</v>
+        <v>0.0428386626726773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.859944</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H3">
-        <v>26.579832</v>
+        <v>18.469813</v>
       </c>
       <c r="I3">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J3">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.222109</v>
       </c>
       <c r="O3">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="P3">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="Q3">
-        <v>0.6559577672986666</v>
+        <v>0.455812410624111</v>
       </c>
       <c r="R3">
-        <v>5.903619905688001</v>
+        <v>4.102311695617</v>
       </c>
       <c r="S3">
-        <v>0.03953823130531721</v>
+        <v>0.02132514350164884</v>
       </c>
       <c r="T3">
-        <v>0.03953823130531721</v>
+        <v>0.02132514350164885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.859944</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H4">
-        <v>26.579832</v>
+        <v>18.469813</v>
       </c>
       <c r="I4">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J4">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="N4">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="O4">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="P4">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="Q4">
-        <v>7.428614140170667</v>
+        <v>6.882693726392223</v>
       </c>
       <c r="R4">
-        <v>66.85752726153601</v>
+        <v>61.94424353753</v>
       </c>
       <c r="S4">
-        <v>0.4477639854187224</v>
+        <v>0.3220062200418033</v>
       </c>
       <c r="T4">
-        <v>0.4477639854187225</v>
+        <v>0.3220062200418034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.867977666666666</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H5">
         <v>17.603933</v>
       </c>
       <c r="I5">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J5">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="N5">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="O5">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="P5">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="Q5">
-        <v>0.05285874282133333</v>
+        <v>0.872724758437778</v>
       </c>
       <c r="R5">
-        <v>0.4757286853919999</v>
+        <v>7.854522825940001</v>
       </c>
       <c r="S5">
-        <v>0.003186091093615442</v>
+        <v>0.04083035098944489</v>
       </c>
       <c r="T5">
-        <v>0.003186091093615442</v>
+        <v>0.0408303509894449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.867977666666666</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H6">
         <v>17.603933</v>
       </c>
       <c r="I6">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J6">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>0.222109</v>
       </c>
       <c r="O6">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="P6">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="Q6">
-        <v>0.4344435505218888</v>
+        <v>0.4344435505218889</v>
       </c>
       <c r="R6">
-        <v>3.909991954696999</v>
+        <v>3.909991954697</v>
       </c>
       <c r="S6">
-        <v>0.02618633461781499</v>
+        <v>0.02032540326306561</v>
       </c>
       <c r="T6">
-        <v>0.02618633461781499</v>
+        <v>0.02032540326306561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.867977666666666</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H7">
         <v>17.603933</v>
       </c>
       <c r="I7">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J7">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="N7">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="O7">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="P7">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="Q7">
-        <v>4.920001962631554</v>
+        <v>6.560027392747779</v>
       </c>
       <c r="R7">
-        <v>44.28001766368399</v>
+        <v>59.04024653473001</v>
       </c>
       <c r="S7">
-        <v>0.2965559450911565</v>
+        <v>0.3069103040295624</v>
       </c>
       <c r="T7">
-        <v>0.2965559450911566</v>
+        <v>0.3069103040295625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.918147666666667</v>
+      </c>
+      <c r="H8">
+        <v>11.754443</v>
+      </c>
+      <c r="I8">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="J8">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>3.275965666666667</v>
-      </c>
-      <c r="H8">
-        <v>9.827897</v>
-      </c>
-      <c r="I8">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="J8">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="N8">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="O8">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="P8">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="Q8">
-        <v>0.02950989872533333</v>
+        <v>0.5827330419711113</v>
       </c>
       <c r="R8">
-        <v>0.265589088528</v>
+        <v>5.244597377740001</v>
       </c>
       <c r="S8">
-        <v>0.001778726100620238</v>
+        <v>0.0272631140652162</v>
       </c>
       <c r="T8">
-        <v>0.001778726100620238</v>
+        <v>0.0272631140652162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3.275965666666667</v>
+        <v>3.918147666666667</v>
       </c>
       <c r="H9">
-        <v>9.827897</v>
+        <v>11.754443</v>
       </c>
       <c r="I9">
-        <v>0.1819587962318212</v>
+        <v>0.2457639155017975</v>
       </c>
       <c r="J9">
-        <v>0.1819587962318212</v>
+        <v>0.2457639155017975</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.222109</v>
       </c>
       <c r="O9">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="P9">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="Q9">
-        <v>0.2425404860858889</v>
+        <v>0.2900852866985556</v>
       </c>
       <c r="R9">
-        <v>2.182864374773</v>
+        <v>2.610767580287</v>
       </c>
       <c r="S9">
-        <v>0.01461926715077932</v>
+        <v>0.01357161459928976</v>
       </c>
       <c r="T9">
-        <v>0.01461926715077932</v>
+        <v>0.01357161459928976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>3.275965666666667</v>
+        <v>3.918147666666667</v>
       </c>
       <c r="H10">
-        <v>9.827897</v>
+        <v>11.754443</v>
       </c>
       <c r="I10">
-        <v>0.1819587962318212</v>
+        <v>0.2457639155017975</v>
       </c>
       <c r="J10">
-        <v>0.1819587962318212</v>
+        <v>0.2457639155017975</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="N10">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="O10">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="P10">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="Q10">
-        <v>2.746731229239555</v>
+        <v>4.380240941981112</v>
       </c>
       <c r="R10">
-        <v>24.720581063156</v>
+        <v>39.42216847783001</v>
       </c>
       <c r="S10">
-        <v>0.1655608029804216</v>
+        <v>0.2049291868372916</v>
       </c>
       <c r="T10">
-        <v>0.1655608029804216</v>
+        <v>0.2049291868372916</v>
       </c>
     </row>
   </sheetData>
